--- a/biology/Zoologie/Isidella_elongata/Isidella_elongata.xlsx
+++ b/biology/Zoologie/Isidella_elongata/Isidella_elongata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isidella elongata est une espèce de gorgones (« coraux cornés ») de la famille des Isididae (les « coraux bambous ») de grande taille (pouvant atteindre 50 cm) et de couleur blanche. 
 </t>
@@ -511,10 +523,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est principalement présente en Méditerranée, notamment dans son bassin occidental[2]. Elle vit sur les fonds de vases à structure rigide des plaines bathyales (ou Talus continental, entre 200 et 1 000 m de profondeur), bien qu'on puisse l'observer à des profondeurs moindres[3].
-Elle serait avec Acanella arbuscula et Acanella furcata, l'une des trois seules espèces de coraux bambous de Méditerranée[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est principalement présente en Méditerranée, notamment dans son bassin occidental. Elle vit sur les fonds de vases à structure rigide des plaines bathyales (ou Talus continental, entre 200 et 1 000 m de profondeur), bien qu'on puisse l'observer à des profondeurs moindres.
+Elle serait avec Acanella arbuscula et Acanella furcata, l'une des trois seules espèces de coraux bambous de Méditerranée. 
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Menaces et mesures de gestion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette espèce est en danger critique d'extinction en Méditerranée[4]. Les fonds de vase rigide à Isidella elongata sont des milieux riches pour les ressources halieutiques. Le chalutage de fond est la première menace qui pèse sur cet habitat[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette espèce est en danger critique d'extinction en Méditerranée. Les fonds de vase rigide à Isidella elongata sont des milieux riches pour les ressources halieutiques. Le chalutage de fond est la première menace qui pèse sur cet habitat,.
 Les fonds à Isidella sont identifiés dans le cadre de plusieurs démarches internationales :
 ils constituent des écosystèmes marins vulnérables ;
-la Commission générale des pêches pour la Méditerranée les considère comme habitat sensible[7].
-Ils figurent également sur la liste de référence des types d'habitat marins pour identifier les sites d’intérêt pour la conservation de la convention de Barcelone[8] et sont mentionnés à ce titre dans le plan d'action pour les habitats obscurs[9] défini dans le cadre Plan d’action pour la Méditerranée du Programme des Nations unies pour l’environnement.</t>
+la Commission générale des pêches pour la Méditerranée les considère comme habitat sensible.
+Ils figurent également sur la liste de référence des types d'habitat marins pour identifier les sites d’intérêt pour la conservation de la convention de Barcelone et sont mentionnés à ce titre dans le plan d'action pour les habitats obscurs défini dans le cadre Plan d’action pour la Méditerranée du Programme des Nations unies pour l’environnement.</t>
         </is>
       </c>
     </row>
